--- a/Estimates.xlsx
+++ b/Estimates.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19120"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179016"/>
 </workbook>
 </file>
 
@@ -26,6 +26,9 @@
     <t>Stages</t>
   </si>
   <si>
+    <t>Staff</t>
+  </si>
+  <si>
     <t>Planning</t>
   </si>
   <si>
@@ -50,191 +53,188 @@
     <t>(1 week)</t>
   </si>
   <si>
+    <t>(3 days)</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>Choose a project</t>
   </si>
   <si>
+    <t>4 Days / 10 hours</t>
+  </si>
+  <si>
     <t>Brainstorming</t>
   </si>
   <si>
+    <t>3 Days / 7 hours</t>
+  </si>
+  <si>
     <t>Create project proposal</t>
   </si>
   <si>
+    <t>2 Days / 2 hours</t>
+  </si>
+  <si>
+    <t>Look for a client</t>
+  </si>
+  <si>
+    <t>3 Days / 2 hours</t>
+  </si>
+  <si>
+    <t>Submit letter of request for interview to the client</t>
+  </si>
+  <si>
+    <t>1 Day / 1 hour</t>
+  </si>
+  <si>
+    <t>Conduct Interview</t>
+  </si>
+  <si>
+    <t>Create pitch video</t>
+  </si>
+  <si>
+    <t>5 Days / 3 hours</t>
+  </si>
+  <si>
     <t>Get adviser/ consultant</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Day / 1 hour </t>
+  </si>
+  <si>
+    <t>Total Days and Hours of Planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 Days / 28 hours </t>
+  </si>
+  <si>
+    <t>Create wiki</t>
+  </si>
+  <si>
+    <t>2 Days / 6 hours</t>
+  </si>
+  <si>
+    <t>Create github</t>
+  </si>
+  <si>
+    <t>Create documentation</t>
+  </si>
+  <si>
+    <t>Technical Background</t>
+  </si>
+  <si>
+    <t>4 Days / 5 hours</t>
+  </si>
+  <si>
+    <t>Software Requirement Specification</t>
+  </si>
+  <si>
+    <t>4 Days / 7 hours</t>
+  </si>
+  <si>
     <t>Create diagrams</t>
   </si>
   <si>
-    <t>Look for a client</t>
-  </si>
-  <si>
-    <t>Conduct Interview</t>
+    <t>20 Days / 50 hours</t>
   </si>
   <si>
     <t>Create progress report</t>
   </si>
   <si>
-    <t>Create wiki</t>
-  </si>
-  <si>
-    <t>Create github</t>
-  </si>
-  <si>
-    <t>Create documentation</t>
-  </si>
-  <si>
-    <t>Create pitch video</t>
+    <t>15 Days / 12 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gantt Chart</t>
+  </si>
+  <si>
+    <t>7 Days / 10 hours</t>
+  </si>
+  <si>
+    <t>Project Charter</t>
+  </si>
+  <si>
+    <t>5 Days / 4 hours</t>
+  </si>
+  <si>
+    <t>Scope of work</t>
+  </si>
+  <si>
+    <t>7 Days / 7 hours</t>
+  </si>
+  <si>
+    <t>Vision and scope document</t>
+  </si>
+  <si>
+    <t>5 Days / 10 hours</t>
+  </si>
+  <si>
+    <t>Submission of deliverables</t>
+  </si>
+  <si>
+    <t>5 Days / 8 hours</t>
   </si>
   <si>
     <t>Meet the adviser</t>
   </si>
   <si>
+    <t>1 Day / 2 hours</t>
+  </si>
+  <si>
     <t>Revise documentation</t>
   </si>
   <si>
-    <t>Submission of deliverables</t>
-  </si>
-  <si>
-    <t>Submit letter of request for interview to the client</t>
+    <t>4 Days / 28 hours</t>
   </si>
   <si>
     <t>Revise Diagrams</t>
   </si>
   <si>
-    <t>Vision and scope document</t>
-  </si>
-  <si>
-    <t>Scope of work</t>
-  </si>
-  <si>
-    <t>Technical Background</t>
-  </si>
-  <si>
-    <t>Software Requirement Specification</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gantt Chart</t>
+    <t>4 Days / 20 hours</t>
   </si>
   <si>
     <t>Update wiki and git</t>
   </si>
   <si>
-    <t>(3 days)</t>
-  </si>
-  <si>
-    <t>Project Charter</t>
+    <t>2 Days / 7 hours</t>
+  </si>
+  <si>
+    <t>Total of days and hours of Designing</t>
+  </si>
+  <si>
+    <t>89 Days / 184 hours</t>
   </si>
   <si>
     <t>Mobile Application Development</t>
   </si>
   <si>
-    <t>4 Days / 10 hours</t>
-  </si>
-  <si>
-    <t>3 Days / 7 hours</t>
-  </si>
-  <si>
-    <t>2 Days / 2 hours</t>
-  </si>
-  <si>
-    <t>3 Days / 2 hours</t>
-  </si>
-  <si>
-    <t>1 Day / 1 hour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Day / 1 hour </t>
-  </si>
-  <si>
-    <t>Total Days and Hours of Planning</t>
-  </si>
-  <si>
-    <t>5 Days / 3 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 Days / 28 hours </t>
-  </si>
-  <si>
-    <t>2 Days / 6 hours</t>
-  </si>
-  <si>
-    <t>4 Days / 5 hours</t>
-  </si>
-  <si>
-    <t>4 Days / 7 hours</t>
-  </si>
-  <si>
-    <t>20 Days / 50 hours</t>
-  </si>
-  <si>
-    <t>15 Days / 12 hours</t>
-  </si>
-  <si>
-    <t>7 Days / 10 hours</t>
-  </si>
-  <si>
-    <t>5 Days / 4 hours</t>
-  </si>
-  <si>
-    <t>7 Days / 7 hours</t>
-  </si>
-  <si>
-    <t>5 Days / 10 hours</t>
-  </si>
-  <si>
-    <t>5 Days / 8 hours</t>
-  </si>
-  <si>
-    <t>1 Day / 2 hours</t>
-  </si>
-  <si>
-    <t>4 Days / 28 hours</t>
-  </si>
-  <si>
-    <t>4 Days / 20 hours</t>
-  </si>
-  <si>
-    <t>2 Days / 7 hours</t>
+    <t>30 days / 100 hours</t>
   </si>
   <si>
     <t>Software Testing and Quality</t>
   </si>
   <si>
+    <t xml:space="preserve">3 days / 4 hours </t>
+  </si>
+  <si>
     <t>Implementation</t>
   </si>
   <si>
-    <t>Total of days and hours of Designing</t>
-  </si>
-  <si>
-    <t>89 Days / 184 hours</t>
-  </si>
-  <si>
     <t>1 Day / 3 hours</t>
   </si>
   <si>
-    <t>30 days / 100 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 days / 4 hours </t>
-  </si>
-  <si>
     <t xml:space="preserve">Total of All: </t>
   </si>
   <si>
     <t>143 Days / 323 hours</t>
-  </si>
-  <si>
-    <t>Staff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -615,14 +615,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="62.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
@@ -634,7 +634,7 @@
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -646,7 +646,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -656,53 +656,53 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -712,12 +712,12 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -726,12 +726,12 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -740,12 +740,12 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -754,388 +754,388 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.25">
       <c r="A10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.25">
+      <c r="A11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.25">
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.25">
+      <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.25">
       <c r="A16" s="15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.25">
       <c r="A17" s="15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.25">
       <c r="A18" s="15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.25">
       <c r="A19" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.25">
       <c r="A20" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.25">
       <c r="A21" s="15" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.25">
       <c r="A22" s="15" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.25">
       <c r="A23" s="15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.25">
+      <c r="A24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14.25">
+      <c r="A25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.25">
+      <c r="A26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="14.25">
+      <c r="A27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="12" t="s">
+    <row r="28" spans="1:8" ht="14.25">
+      <c r="A28" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="17" t="s">
+    <row r="29" spans="1:8" ht="14.25">
+      <c r="A29" s="13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="C29" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="17" t="s">
+    <row r="30" spans="1:8" ht="14.25">
+      <c r="A30" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="17" t="s">
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="13" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="14.25">
       <c r="A32" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="14"/>
       <c r="H32" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="14.25">
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="14.25">
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="14.25">
       <c r="A36" s="13" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.25">
       <c r="A37" s="15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="12"/>
       <c r="E37" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.25">
+      <c r="A38" s="15" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
       <c r="G38" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.25">
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
     </row>
-    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="14.25">
       <c r="B40" s="14"/>
       <c r="D40" s="12"/>
       <c r="G40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.25">
       <c r="B41" s="14"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="14.25">
       <c r="B42" s="14"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="14.25">
       <c r="B43" s="14"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="14.25">
       <c r="B44" s="14"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="14.25">
       <c r="B45" s="14"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="14.25">
       <c r="B46" s="14"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="14.25">
       <c r="B47" s="14"/>
       <c r="D47" s="12"/>
     </row>
-    <row r="48" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="14.25">
       <c r="B48" s="14"/>
       <c r="D48" s="12"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="11"/>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="11"/>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="11"/>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="11"/>
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="11"/>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="11"/>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="11"/>
       <c r="B61" s="5"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="11"/>
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="11"/>
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="11"/>
       <c r="B65" s="5"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="11"/>
       <c r="B66" s="5"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="11"/>
       <c r="B67" s="5"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="11"/>
       <c r="C68" s="12"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="11"/>
       <c r="C69" s="12"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="11"/>
       <c r="C70" s="12"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="11"/>
       <c r="C71" s="12"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="11"/>
       <c r="C72" s="12"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="11"/>
       <c r="C73" s="12"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="11"/>
       <c r="C74" s="12"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="11"/>
       <c r="B75" s="3"/>
       <c r="C75" s="12"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="11"/>
       <c r="C76" s="12"/>
       <c r="E76" s="3"/>
@@ -1143,226 +1143,226 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="11"/>
       <c r="C77" s="12"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="11"/>
       <c r="C78" s="12"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="11"/>
       <c r="C79" s="12"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="11"/>
       <c r="C80" s="12"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="11"/>
       <c r="C81" s="12"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="11"/>
       <c r="D82" s="12"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="11"/>
       <c r="D83" s="12"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="11"/>
       <c r="D84" s="12"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="11"/>
       <c r="D85" s="12"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="11"/>
       <c r="D86" s="12"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="11"/>
       <c r="D87" s="12"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="11"/>
       <c r="D88" s="12"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="11"/>
       <c r="D90" s="12"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="11"/>
       <c r="B93" s="5"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="11"/>
       <c r="B94" s="5"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="11"/>
       <c r="B97" s="5"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="11"/>
       <c r="B98" s="5"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="11"/>
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="11"/>
       <c r="B100" s="5"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="11"/>
       <c r="B101" s="5"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="11"/>
       <c r="B102" s="5"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="11"/>
       <c r="B103" s="5"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="11"/>
       <c r="B104" s="5"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="11"/>
       <c r="B107" s="5"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="11"/>
       <c r="B108" s="5"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="11"/>
       <c r="B109" s="5"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="11"/>
       <c r="B110" s="5"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="11"/>
       <c r="C111" s="12"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="11"/>
       <c r="C112" s="12"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="11"/>
       <c r="C113" s="12"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="11"/>
       <c r="C114" s="12"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="11"/>
       <c r="C115" s="12"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="11"/>
       <c r="C116" s="12"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" s="11"/>
       <c r="C117" s="12"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="11"/>
       <c r="C118" s="12"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="11"/>
       <c r="C119" s="12"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" s="11"/>
       <c r="C120" s="12"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" s="11"/>
       <c r="C121" s="12"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" s="11"/>
       <c r="C122" s="12"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="11"/>
       <c r="C123" s="12"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" s="11"/>
       <c r="C124" s="12"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="11"/>
       <c r="D125" s="12"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" s="11"/>
       <c r="D126" s="12"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" s="11"/>
       <c r="D127" s="12"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" s="11"/>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="11"/>
       <c r="D129" s="12"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="11"/>
       <c r="D130" s="12"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" s="11"/>
       <c r="D131" s="12"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" s="11"/>
       <c r="D132" s="12"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" s="8"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -1372,7 +1372,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="9"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -1381,7 +1381,7 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -1391,7 +1391,7 @@
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" s="10"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -1401,7 +1401,7 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" s="10"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -1411,7 +1411,7 @@
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" s="10"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -1421,7 +1421,7 @@
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" s="10"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -1431,7 +1431,7 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" s="10"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -1441,7 +1441,7 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" s="10"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -1451,7 +1451,7 @@
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" s="10"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -1461,7 +1461,7 @@
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" s="10"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -1471,7 +1471,7 @@
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" s="10"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -1481,7 +1481,7 @@
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" s="10"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -1491,7 +1491,7 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" s="10"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -1501,7 +1501,7 @@
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" s="10"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -1511,7 +1511,7 @@
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" s="10"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -1521,7 +1521,7 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -1531,7 +1531,7 @@
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -1550,12 +1550,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1564,12 +1564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1578,15 +1578,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F87F5734FC7D3D48B22C702A58C6F427" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94f54a3a5eeef7c1e013c2379182a97e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="413d0d0c-a7cf-4d28-9916-c0cea0a2c048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4bd9ad8e2309d2e5577f0afb1f485381" ns2:_="">
     <xsd:import namespace="413d0d0c-a7cf-4d28-9916-c0cea0a2c048"/>
@@ -1718,28 +1709,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CE31ABB-9CC6-44F6-A319-A29AA94678EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F687A8C-E7B6-4CF0-8CC4-74BAF4ACD0AC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F687A8C-E7B6-4CF0-8CC4-74BAF4ACD0AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="413d0d0c-a7cf-4d28-9916-c0cea0a2c048"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CE31ABB-9CC6-44F6-A319-A29AA94678EB}"/>
 </file>